--- a/БИС/3/Семинар 3 Борисов ПИ20-5 БИС.xlsx
+++ b/БИС/3/Семинар 3 Борисов ПИ20-5 БИС.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\XXX\БИС\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00216D6F-88BD-4F00-8AED-3F6BA002382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E0964-7EA8-442C-9510-82D1FEDDFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{4FE918B4-36FE-4CDA-B0A9-E71D0B675CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>кредит</t>
   </si>
@@ -100,9 +100,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -134,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,18 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEF6077-BAB3-4407-9EB4-8F4468F3F73D}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,89 +581,71 @@
         <v>4611602.7358847493</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20">
         <v>750000</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <f>RATE(B22*B23,,-B20,B20*2,)*4</f>
+        <v>0.36203093066103054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.74494847556522759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f>FV(D20/B23,B23*B22,0,-B20,)</f>
+        <v>1499999.9999999998</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3">
-        <f>-CUMIPMT(B21/B23,B23*B22,B20,1,B22*B23,0)</f>
+        <f>-CUMIPMT(B21/B23,B23*B22,B20,1,B23*B22,0)</f>
         <v>254806.57494452782</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <f>-CUMIPMT(E21/E23,E23*E22,E20,1,E22*E23,0)</f>
-        <v>750000.00000000419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -668,7 +653,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -676,7 +661,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -684,7 +669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -692,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
